--- a/tools/GD32 CAN波特率计算.xlsx
+++ b/tools/GD32 CAN波特率计算.xlsx
@@ -4,25 +4,44 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>填写黑框</t>
+  </si>
   <si>
     <t>主频</t>
   </si>
   <si>
-    <t>填写黑框</t>
-  </si>
-  <si>
-    <t>APB1（2分频）</t>
+    <t>APB1分频系数</t>
+  </si>
+  <si>
+    <t>1、从数据手册中找到主频和APB1频率</t>
+  </si>
+  <si>
+    <t>APB1频率</t>
   </si>
   <si>
     <t>CAN 预分频</t>
@@ -37,12 +56,18 @@
     <t>BS1</t>
   </si>
   <si>
-    <t>调整比例至采样点大于75%</t>
+    <t>[1,16]</t>
+  </si>
+  <si>
+    <t>调整比例至采样点大于75%，最好85%左右</t>
   </si>
   <si>
     <t>BS2</t>
   </si>
   <si>
+    <t>[1,8]</t>
+  </si>
+  <si>
     <t>Tsync_seg</t>
   </si>
   <si>
@@ -71,19 +96,25 @@
   </si>
   <si>
     <t>（from 75 to 90）</t>
+  </si>
+  <si>
+    <t>2、填写黑框计算出BS1、BS2、CAN预分频</t>
+  </si>
+  <si>
+    <t>3、根据计算结果填充到CAN初始化结构体</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,55 +123,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,6 +187,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -230,13 +247,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,49 +283,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,121 +433,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,21 +500,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +533,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,222 +606,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -788,20 +847,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -814,8 +873,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="144145"/>
-          <a:ext cx="4429125" cy="2333625"/>
+          <a:off x="7791450" y="1028700"/>
+          <a:ext cx="7639050" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="6067425"/>
+          <a:ext cx="4267200" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1089,13 +1190,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
@@ -1104,107 +1205,88 @@
     <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="2:5">
-      <c r="B2" t="s">
+    <row r="2" ht="21" spans="3:3">
+      <c r="C2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="2:10">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <f>C2/2</f>
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" t="s">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+    </row>
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4">
         <f>C3/C4</f>
-        <v>10000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <f>1/C5</f>
-        <v>1e-7</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:5">
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="5">
+        <f>C5/C6</f>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:3">
-      <c r="B8" t="s">
+      <c r="C8">
+        <f>1/C7</f>
+        <v>1.33333333333333e-7</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="2:5">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="2:4">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <f>C6</f>
-        <v>1e-7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <f>C11*1000000000</f>
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
+      <c r="D10" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C12">
-        <f>(C7)*C11</f>
-        <v>1.6e-6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f>C12*1000000000</f>
-        <v>1600</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1212,61 +1294,109 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <f>(C8)*C11</f>
-        <v>3e-7</v>
+        <f>C8</f>
+        <v>1.33333333333333e-7</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <f>C13*1000000000</f>
-        <v>300</v>
+        <v>133.333333333333</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f>(C9)*C13</f>
+        <v>1.46666666666667e-6</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
-      </c>
-      <c r="C14">
-        <f>C11+C12+C13</f>
-        <v>2e-6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
       </c>
       <c r="E14">
         <f>C14*1000000000</f>
+        <v>1466.66666666667</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <f>(C10)*C13</f>
+        <v>4e-7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f>C15*1000000000</f>
+        <v>400</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <f>C13+C14+C15</f>
+        <v>2e-6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f>C16*1000000000</f>
         <v>2000</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
-        <f>1/C14/1000</f>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8">
+        <f>1/C16/1000</f>
         <v>500</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6">
-        <f>(C7+1)/(1+C7+C8)</f>
-        <v>0.85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <f>(C9+1)/(1+C9+C10)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
